--- a/inst/extdata/myfile.xlsx
+++ b/inst/extdata/myfile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">TADA.CharacteristicName</t>
   </si>
@@ -24,6 +24,30 @@
     <t xml:space="preserve">TADA.ResultSampleFractionText</t>
   </si>
   <si>
+    <t xml:space="preserve">entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTAINS.UseName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTAINS.WaterType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTAINS.CharacteristicGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TADA.UserAcuteChronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TADA.UserStandardValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TADA.UserStandardUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TADA.StandardLimit</t>
+  </si>
+  <si>
     <t xml:space="preserve">NITRATE</t>
   </si>
   <si>
@@ -54,9 +78,6 @@
     <t xml:space="preserve">AMMONIA</t>
   </si>
   <si>
-    <t xml:space="preserve">entity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Utah</t>
   </si>
   <si>
@@ -75,9 +96,6 @@
     <t xml:space="preserve">Agricultural</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTAINS.waterType</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lake, Reservoir, Impoundment</t>
   </si>
   <si>
@@ -120,7 +138,22 @@
     <t xml:space="preserve">Wetland Undifferentiated</t>
   </si>
   <si>
-    <t xml:space="preserve">acuteChronic</t>
+    <t xml:space="preserve">Metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbiological</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Acute</t>
@@ -129,27 +162,9 @@
     <t xml:space="preserve">Chronic</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">parameterGroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Metals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissolved Oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">Upper</t>
   </si>
   <si>
@@ -157,18 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATTAINS.useName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TADA.UserStandardValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TADA.UserStandardUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TADA.StandardLimit</t>
   </si>
 </sst>
 </file>
@@ -176,13 +179,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,8 +214,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,243 +521,243 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -764,824 +774,837 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="23.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="25.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="29.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="6.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="54.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="17.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="27.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="21.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="22.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="21.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="18.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1612,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Index'!$A$2:$A$100</xm:f>
@@ -1638,6 +1661,12 @@
           </x14:formula1>
           <xm:sqref>H2:H30</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Index'!$K$2:$K$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K30</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
